--- a/homework4/Bugs_report_Ivan_Voronkov.xlsx
+++ b/homework4/Bugs_report_Ivan_Voronkov.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="302">
   <si>
     <t>ID</t>
   </si>
@@ -80,9 +80,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>ivoronkov - Calc - No functionality when you click the "7" button</t>
-  </si>
-  <si>
     <t>v1.0</t>
   </si>
   <si>
@@ -104,175 +101,36 @@
     <t>iv8032218</t>
   </si>
   <si>
-    <t>Not displayed "7" on the screen of calculator when you click the "7" button.
-Environment: Java SE Development Kit 10.0.1</t>
-  </si>
-  <si>
-    <t>Displayed on the screen of calculator "7"</t>
-  </si>
-  <si>
-    <t>1. Start the file: Application to test - Calc.jar; 2. Click the "7" button</t>
-  </si>
-  <si>
     <t>Windows PC Asus Generic/All Windows 7</t>
   </si>
   <si>
     <t xml:space="preserve">23/06/2018 13:55:32 </t>
   </si>
   <si>
-    <t xml:space="preserve">25/06/2018 02:44:09 </t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>ivoronkov - Calc - No button of the decimal logarithm function</t>
-  </si>
-  <si>
-    <t>v1.0</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Major</t>
-  </si>
-  <si>
     <t>Functional</t>
   </si>
   <si>
-    <t>Always</t>
-  </si>
-  <si>
-    <t>iv8032218</t>
-  </si>
-  <si>
-    <t>The "lg" button do not displayed in the interface.
-Environment: Java SE Development Kit 10.0.1</t>
-  </si>
-  <si>
-    <t>The "lg" button displayed in the interface</t>
-  </si>
-  <si>
-    <t>1. Start the file: Application to test - Calc.jar</t>
-  </si>
-  <si>
-    <t>Windows PC Asus Generic/All Windows 7</t>
-  </si>
-  <si>
     <t xml:space="preserve">23/06/2018 14:08:24 </t>
   </si>
   <si>
-    <t xml:space="preserve">25/06/2018 02:44:18 </t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>ivoronkov - Calc - The division function is not performed when entering from the keyboard</t>
-  </si>
-  <si>
-    <t>v1.0</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Major</t>
-  </si>
-  <si>
-    <t>Functional</t>
-  </si>
-  <si>
-    <t>Always</t>
-  </si>
-  <si>
-    <t>iv8032218</t>
-  </si>
-  <si>
-    <t>The calculation is not performed. Displayed on the screen of calculator "0,0123456789/2+".
-Environment: Java SE Development Kit 10.0.1</t>
-  </si>
-  <si>
-    <t>Displayed on the screen of calculator "0,00617283945"</t>
-  </si>
-  <si>
-    <t>1. Start the file: Application to test - Calc.jar; 2. Push the buttons from keyboard: ".", "0", "1", "2", "3", "4", "5", "6", "7", "8", "9"; 3. Push the buttons from keyboard: "/", "2", "+"</t>
-  </si>
-  <si>
-    <t>Windows PC Asus Generic/All Windows 7</t>
-  </si>
-  <si>
     <t xml:space="preserve">23/06/2018 14:16:19 </t>
   </si>
   <si>
-    <t xml:space="preserve">25/06/2018 02:44:26 </t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
-    <t>ivoronkov - Calc - The division function is not performed when entering from the digital keypad with NUM LOCK on</t>
-  </si>
-  <si>
-    <t>v1.0</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Major</t>
-  </si>
-  <si>
-    <t>Functional</t>
-  </si>
-  <si>
-    <t>Always</t>
-  </si>
-  <si>
-    <t>iv8032218</t>
-  </si>
-  <si>
-    <t>The calculation is not performed. Displayed on the screen of calculator "0,0123456789/2+".
-Environment: Java SE Development Kit 10.0.1</t>
-  </si>
-  <si>
-    <t>Displayed on the screen of calculator "0,00617283945"</t>
-  </si>
-  <si>
-    <t>1. Start the file: Application to test - Calc.jar; 2. Push NUM LOCK on; 3. Push the buttons on the numeric keyboard: ".", "0", "1", "2", "3", "4", "5", "6", "7", "8", "9"; 4. Push the buttons on the numeric keyboard: "/", "2", "+"</t>
-  </si>
-  <si>
-    <t>Windows PC Asus Generic/All Windows 7</t>
-  </si>
-  <si>
     <t xml:space="preserve">23/06/2018 14:21:58 </t>
   </si>
   <si>
-    <t xml:space="preserve">25/06/2018 02:44:35 </t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t>ivoronkov - Calc - A fractional number is displayed instead of an integer as a result of calculations</t>
-  </si>
-  <si>
-    <t>v1.0</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
     <t>Medium</t>
   </si>
   <si>
@@ -282,213 +140,34 @@
     <t>Visual</t>
   </si>
   <si>
-    <t>Always</t>
-  </si>
-  <si>
-    <t>iv8032218</t>
-  </si>
-  <si>
-    <t>Displayed on the screen of calculator "34.0".
-Environment: Java SE Development Kit 10.0.1.</t>
-  </si>
-  <si>
-    <t>Displayed on the screen of calculator "34".</t>
-  </si>
-  <si>
-    <t>1. Start the file: Application to test - Calc.jar; 2. Click the buttons: "0", "+", "3", "4", "="</t>
-  </si>
-  <si>
-    <t>Windows PC Asus Generic/All Windows 7</t>
-  </si>
-  <si>
     <t xml:space="preserve">23/06/2018 14:27:20 </t>
   </si>
   <si>
-    <t xml:space="preserve">25/06/2018 02:44:43 </t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
-    <t>ivoronkov - Calc - Incorrect result of the multiplication</t>
-  </si>
-  <si>
-    <t>v1.0</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Major</t>
-  </si>
-  <si>
-    <t>Functional</t>
-  </si>
-  <si>
-    <t>Always</t>
-  </si>
-  <si>
-    <t>iv8032218</t>
-  </si>
-  <si>
-    <t>Displayed on the screen of calculator "8,96059". The multiplication result is always greater by one from the expected result.
-Environment: Java SE Development Kit 10.0.1.</t>
-  </si>
-  <si>
-    <t>Displayed on the screen of calculator  "7,96059".</t>
-  </si>
-  <si>
-    <t>1. Start the file: Application to test - Calc.jar; 2. Click the buttons: "8", ",", "0", "4", "1", "*", "0", ",", "9", "9", "="</t>
-  </si>
-  <si>
-    <t>Windows PC Asus Generic/All Windows 7</t>
-  </si>
-  <si>
     <t xml:space="preserve">23/06/2018 14:33:42 </t>
   </si>
   <si>
-    <t xml:space="preserve">25/06/2018 02:44:51 </t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
-    <t>ivoronkov - Calc - Grammatical errors in displaying the division result by zero</t>
-  </si>
-  <si>
-    <t>v1.0</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Minor</t>
-  </si>
-  <si>
     <t>Text</t>
   </si>
   <si>
-    <t>Always</t>
-  </si>
-  <si>
-    <t>iv8032218</t>
-  </si>
-  <si>
-    <t>Displayed on the screen of calculator "Джеление на нуль невозможно."
-Environment: Java SE Development Kit 10.0.1.</t>
-  </si>
-  <si>
-    <t>Displayed on the screen of calculator "Деление на ноль невозможно".</t>
-  </si>
-  <si>
-    <t>1. Start the file: Application to test - Calc.jar; 2. Click the buttons: "5",  "6", "/", "0", "="</t>
-  </si>
-  <si>
-    <t>Windows PC Asus Generic/All Windows 7</t>
-  </si>
-  <si>
     <t xml:space="preserve">23/06/2018 14:39:37 </t>
   </si>
   <si>
-    <t xml:space="preserve">25/06/2018 02:45:00 </t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
-    <t>ivoronkov - Calc - A negative zero is displayed when the division zero by negative numbers</t>
-  </si>
-  <si>
-    <t>v1.0</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Minor</t>
-  </si>
-  <si>
-    <t>Visual</t>
-  </si>
-  <si>
-    <t>Always</t>
-  </si>
-  <si>
-    <t>iv8032218</t>
-  </si>
-  <si>
-    <t>Displayed on the screen of calculator "-0.0".
-Environment: Java SE Development Kit 10.0.1.</t>
-  </si>
-  <si>
-    <t>Displayed on the screen of calculator "0".</t>
-  </si>
-  <si>
-    <t>1. Start the file: Application to test - Calc.jar; 2. Click the buttons: "0", "/", "6", "+/-", "="</t>
-  </si>
-  <si>
-    <t>Windows PC Asus Generic/All Windows 7</t>
-  </si>
-  <si>
     <t xml:space="preserve">23/06/2018 14:44:04 </t>
   </si>
   <si>
-    <t xml:space="preserve">25/06/2018 02:45:08 </t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
-    <t>ivoronkov - Calc - Incorrect result of the multiplication of negative numbers in percent</t>
-  </si>
-  <si>
-    <t>v1.0</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Major</t>
-  </si>
-  <si>
-    <t>Functional</t>
-  </si>
-  <si>
-    <t>Always</t>
-  </si>
-  <si>
-    <t>iv8032218</t>
-  </si>
-  <si>
-    <t>Displayed on the screen of calculator "21.0". The bug is probably due to the bug 6.
-Environment: Java SE Development Kit 10.0.1.</t>
-  </si>
-  <si>
-    <t>Displayed on the screen of calculator "20".</t>
-  </si>
-  <si>
-    <t>1. Start the file: Application to test - Calc.jar; 2. Click the buttons: "1", "0", "*", "2", "0", "%", "="</t>
-  </si>
-  <si>
-    <t>Windows PC Asus Generic/All Windows 7</t>
-  </si>
-  <si>
     <t xml:space="preserve">23/06/2018 14:47:02 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">25/06/2018 02:45:17 </t>
   </si>
   <si>
     <t>ivoronkov - Luxor - Incorrect display of the logo in the header when hovering over the cursor</t>
@@ -1140,6 +819,150 @@
   </si>
   <si>
     <t>https://dashboard.leantesting.com/en/projects/calc/35329/bug-tracker#9</t>
+  </si>
+  <si>
+    <t>Calc - "7" button is not functioning properly</t>
+  </si>
+  <si>
+    <t>"7" is not displayed in the Result field of Calc app.
+Environment: Java SE Development Kit 10.0.1</t>
+  </si>
+  <si>
+    <t>"7" is displayed in the Result field of Calc app</t>
+  </si>
+  <si>
+    <t>1. Start the file: Application to test - Calc.jar; 2. Click "7" button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/06/2018 03:58:49 </t>
+  </si>
+  <si>
+    <t>Calc - No button of the decimal logarithm function</t>
+  </si>
+  <si>
+    <t>It is not possible to click "log" button as it is application interface (please see Act_res101.bmp screenshot attached).
+Environment: Java SE Development Kit 10.0.1</t>
+  </si>
+  <si>
+    <t>Logarythm of 10 should be calculated. 1 should appear in the Result field.</t>
+  </si>
+  <si>
+    <t>1. Start the file: Application to test - Calc.jar; 2. Using keyboard, click sequentially "1", "0", "log" buttons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/06/2018 03:46:28 </t>
+  </si>
+  <si>
+    <t>Calc - Entering from the keyboard is not functioning properly</t>
+  </si>
+  <si>
+    <t>The calculation is not performed. "0,0123456789/2+" is displayed in the Result field of Calc app (please see Act_res102.bmp screenshot attached).
+Environment: Java SE Development Kit 10.0.1</t>
+  </si>
+  <si>
+    <t>The calculation should be performed. "0,00617283945" appear in the Result field of Calc app</t>
+  </si>
+  <si>
+    <t>1. Start the file: Application to test - Calc.jar; 2. Using keyboard, press sequentially ".", "0", "1", "2", "3", "4", "5", "6", "7", "8", "9", "/", "2", "+" buttons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/06/2018 03:56:26 </t>
+  </si>
+  <si>
+    <t>Calc - Entering from the numeric keyboard with NUM LOCK on is not functioning properly</t>
+  </si>
+  <si>
+    <t>The calculation is not performed. "0,0123456789/2+" is displayed in the Result field of Calc app (please see Act_res103.bmp screenshot attached).
+Environment: Java SE Development Kit 10.0.1</t>
+  </si>
+  <si>
+    <t>The calculation should be performed. "0,00617283945" is appear in the Result field of Calc app</t>
+  </si>
+  <si>
+    <t>1. Start the file: Application to test - Calc.jar; 2. Push NUM LOCK on; 3. Using keyboard, press sequentially ".", "0", "1", "2", "3", "4", "5", "6", "7", "8", "9", "/", "2", "+" buttons on the numeric keyboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/06/2018 03:56:05 </t>
+  </si>
+  <si>
+    <t>Calc - A fractional number is displayed instead of an integer as a result of calculations</t>
+  </si>
+  <si>
+    <t>"34.0" is displayed in the Result field of Calc app (please see Act_res104.bmp screenshot attached).
+Environment: Java SE Development Kit 10.0.1.</t>
+  </si>
+  <si>
+    <t>The calculation should be performed. "34" is appear in the Result field of Calc app.</t>
+  </si>
+  <si>
+    <t>1. Start the file: Application to test - Calc.jar; 2. Using keyboard, press sequentially "0", "+", "3", "4", "=" buttons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/06/2018 04:18:26 </t>
+  </si>
+  <si>
+    <t>Calc - the multiplication is not functioning properly</t>
+  </si>
+  <si>
+    <t>"8,96059" is displayed in the Result field of Calc app (please see Act_res105.bmp screenshot attached). The multiplication result is always greater by one from the expected result.
+Environment: Java SE Development Kit 10.0.1.</t>
+  </si>
+  <si>
+    <t>The calculation should be performed. "7,96059" is appear in the Result field of Calc app.</t>
+  </si>
+  <si>
+    <t>1. Start the file: Application to test - Calc.jar; 2. Using keyboard, press sequentially "8", ",", "0", "4", "1", "*", "0", ",", "9", "9", "=" buttons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/06/2018 04:12:23 </t>
+  </si>
+  <si>
+    <t>Calc - Grammatical errors in displaying the division result by zero</t>
+  </si>
+  <si>
+    <t>"Джеление на нуль невозможно." is displayed in the Result field of Calc app (please see Act_res106.bmp screenshot attached).
+Environment: Java SE Development Kit 10.0.1.</t>
+  </si>
+  <si>
+    <t>The calculation should not be performed. "Деление на ноль невозможно" is appear in the Result field of Calc app.</t>
+  </si>
+  <si>
+    <t>1. Start the file: Application to test - Calc.jar; 2. Using keyboard, press sequentially "5",  "6", "/", "0", "=" buttons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/06/2018 04:22:05 </t>
+  </si>
+  <si>
+    <t>Calc - A negative zero is displayed when the division zero by negative numbers</t>
+  </si>
+  <si>
+    <t>"-0.0"  is displayed in the Result field of Calc app (please see Act_res107.bmp screenshot attached).
+Environment: Java SE Development Kit 10.0.1.</t>
+  </si>
+  <si>
+    <t>The calculation should be performed. "0" is appear in the Result field of Calc app.</t>
+  </si>
+  <si>
+    <t>1. Start the file: Application to test - Calc.jar; 2. Using keyboard, press sequentially "0", "/", "6", "+/-", "=" buttons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/06/2018 04:26:37 </t>
+  </si>
+  <si>
+    <t>Calc - Incorrect result of the multiplication of negative numbers in percent</t>
+  </si>
+  <si>
+    <t>"21.0" is displayed in the Result field of Calc app (please see Act_res108.bmp screenshot attached). The bug is probably due to the bug 6.
+Environment: Java SE Development Kit 10.0.1.</t>
+  </si>
+  <si>
+    <t>The calculation should be performed. "20" is appear in the Result field of Calc app.</t>
+  </si>
+  <si>
+    <t>1. Start the file: Application to test - Calc.jar; 2. Using keyboard, press sequentially "1", "0", "*", "2", "0", "%", "=" buttons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/06/2018 04:28:50 </t>
   </si>
 </sst>
 </file>
@@ -1536,7 +1359,7 @@
         <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>323</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
@@ -1544,877 +1367,877 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="N2" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>159</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>160</v>
+        <v>56</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>324</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>164</v>
+        <v>60</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1">
         <v>0</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>165</v>
+        <v>61</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>325</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1">
         <v>0</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>171</v>
+        <v>67</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>172</v>
+        <v>68</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>326</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="362.25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>174</v>
+        <v>70</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1">
         <v>0</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>327</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1">
         <v>0</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>328</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>185</v>
+        <v>81</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>187</v>
+        <v>83</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>188</v>
+        <v>84</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1">
         <v>0</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>189</v>
+        <v>85</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>190</v>
+        <v>86</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>329</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>191</v>
+        <v>87</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>192</v>
+        <v>88</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>193</v>
+        <v>89</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>194</v>
+        <v>90</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1">
         <v>0</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>196</v>
+        <v>92</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>330</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>197</v>
+        <v>93</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>198</v>
+        <v>94</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>199</v>
+        <v>95</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>200</v>
+        <v>96</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1">
         <v>0</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>201</v>
+        <v>97</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>202</v>
+        <v>98</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>331</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>203</v>
+        <v>99</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>204</v>
+        <v>100</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>205</v>
+        <v>101</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>206</v>
+        <v>102</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1">
         <v>0</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>207</v>
+        <v>103</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>332</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>210</v>
+        <v>106</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>211</v>
+        <v>107</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>212</v>
+        <v>108</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>206</v>
+        <v>102</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1">
         <v>0</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>213</v>
+        <v>109</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>214</v>
+        <v>110</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>333</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>215</v>
+        <v>111</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>216</v>
+        <v>112</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>217</v>
+        <v>113</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>218</v>
+        <v>114</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>206</v>
+        <v>102</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1">
         <v>0</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>219</v>
+        <v>115</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>220</v>
+        <v>116</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>334</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>222</v>
+        <v>118</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>223</v>
+        <v>119</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>224</v>
+        <v>120</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>206</v>
+        <v>102</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1">
         <v>0</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>225</v>
+        <v>121</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>226</v>
+        <v>122</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>335</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>227</v>
+        <v>123</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>228</v>
+        <v>124</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
-        <v>229</v>
+        <v>125</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>230</v>
+        <v>126</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>206</v>
+        <v>102</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1">
         <v>0</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>231</v>
+        <v>127</v>
       </c>
       <c r="R14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="S14" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>233</v>
+        <v>129</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>234</v>
+        <v>130</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
-        <v>235</v>
+        <v>131</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>236</v>
+        <v>132</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>206</v>
+        <v>102</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1">
         <v>0</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>237</v>
+        <v>133</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>238</v>
+        <v>134</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>337</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>239</v>
+        <v>135</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>240</v>
+        <v>136</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>241</v>
+        <v>137</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>242</v>
+        <v>138</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>206</v>
+        <v>102</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1">
         <v>0</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>243</v>
+        <v>139</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>244</v>
+        <v>140</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>338</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="393.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>245</v>
+        <v>141</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>246</v>
+        <v>142</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>247</v>
+        <v>143</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>248</v>
+        <v>144</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>249</v>
+        <v>145</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1">
         <v>0</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>250</v>
+        <v>146</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>251</v>
+        <v>147</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>339</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2504,7 +2327,7 @@
         <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>323</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="252" x14ac:dyDescent="0.25">
@@ -2512,647 +2335,647 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>252</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>253</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M2" t="s">
+        <v>152</v>
+      </c>
+      <c r="N2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
-        <v>254</v>
-      </c>
-      <c r="L2" t="s">
-        <v>255</v>
-      </c>
-      <c r="M2" t="s">
-        <v>256</v>
-      </c>
-      <c r="N2" t="s">
-        <v>30</v>
-      </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="R2" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>340</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="378" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>259</v>
+        <v>155</v>
       </c>
       <c r="C3" t="s">
-        <v>253</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>156</v>
+      </c>
+      <c r="L3" t="s">
+        <v>157</v>
+      </c>
+      <c r="M3" t="s">
+        <v>158</v>
+      </c>
+      <c r="N3" t="s">
         <v>26</v>
       </c>
-      <c r="K3" t="s">
-        <v>260</v>
-      </c>
-      <c r="L3" t="s">
-        <v>261</v>
-      </c>
-      <c r="M3" t="s">
-        <v>262</v>
-      </c>
-      <c r="N3" t="s">
-        <v>30</v>
-      </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>263</v>
+        <v>159</v>
       </c>
       <c r="R3" t="s">
-        <v>264</v>
+        <v>160</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>341</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>265</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
-        <v>253</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>162</v>
+      </c>
+      <c r="L4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M4" t="s">
+        <v>152</v>
+      </c>
+      <c r="N4" t="s">
         <v>26</v>
       </c>
-      <c r="K4" t="s">
-        <v>266</v>
-      </c>
-      <c r="L4" t="s">
-        <v>267</v>
-      </c>
-      <c r="M4" t="s">
-        <v>256</v>
-      </c>
-      <c r="N4" t="s">
-        <v>30</v>
-      </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>268</v>
+        <v>164</v>
       </c>
       <c r="R4" t="s">
-        <v>269</v>
+        <v>165</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>342</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>270</v>
+        <v>166</v>
       </c>
       <c r="C5" t="s">
-        <v>253</v>
+        <v>149</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s">
+        <v>167</v>
+      </c>
+      <c r="L5" t="s">
+        <v>168</v>
+      </c>
+      <c r="M5" t="s">
+        <v>169</v>
+      </c>
+      <c r="N5" t="s">
         <v>26</v>
       </c>
-      <c r="K5" t="s">
-        <v>271</v>
-      </c>
-      <c r="L5" t="s">
-        <v>272</v>
-      </c>
-      <c r="M5" t="s">
-        <v>273</v>
-      </c>
-      <c r="N5" t="s">
-        <v>30</v>
-      </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>274</v>
+        <v>170</v>
       </c>
       <c r="R5" t="s">
-        <v>275</v>
+        <v>171</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>343</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>276</v>
+        <v>172</v>
       </c>
       <c r="C6" t="s">
-        <v>253</v>
+        <v>149</v>
       </c>
       <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" t="s">
+        <v>173</v>
+      </c>
+      <c r="L6" t="s">
+        <v>174</v>
+      </c>
+      <c r="M6" t="s">
+        <v>175</v>
+      </c>
+      <c r="N6" t="s">
         <v>26</v>
       </c>
-      <c r="K6" t="s">
-        <v>277</v>
-      </c>
-      <c r="L6" t="s">
-        <v>278</v>
-      </c>
-      <c r="M6" t="s">
-        <v>279</v>
-      </c>
-      <c r="N6" t="s">
-        <v>30</v>
-      </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>280</v>
+        <v>176</v>
       </c>
       <c r="R6" t="s">
-        <v>281</v>
+        <v>177</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>344</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>282</v>
+        <v>178</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>253</v>
+        <v>149</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>283</v>
+        <v>179</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>284</v>
+        <v>180</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>285</v>
+        <v>181</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1">
         <v>0</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>286</v>
+        <v>182</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>287</v>
+        <v>183</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>345</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>288</v>
+        <v>184</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>253</v>
+        <v>149</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>289</v>
+        <v>185</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>290</v>
+        <v>186</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>262</v>
+        <v>158</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1">
         <v>0</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>291</v>
+        <v>187</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>292</v>
+        <v>188</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>346</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="393.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>293</v>
+        <v>189</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>253</v>
+        <v>149</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>294</v>
+        <v>190</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>295</v>
+        <v>191</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>296</v>
+        <v>192</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1">
         <v>0</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>297</v>
+        <v>193</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>298</v>
+        <v>194</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>347</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>299</v>
+        <v>195</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>253</v>
+        <v>149</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>300</v>
+        <v>196</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>301</v>
+        <v>197</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>302</v>
+        <v>198</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1">
         <v>0</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>303</v>
+        <v>199</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>304</v>
+        <v>200</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>348</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>305</v>
+        <v>201</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>253</v>
+        <v>149</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>306</v>
+        <v>202</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>307</v>
+        <v>203</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>308</v>
+        <v>204</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1">
         <v>0</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>309</v>
+        <v>205</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>310</v>
+        <v>206</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>349</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="315" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>311</v>
+        <v>207</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>253</v>
+        <v>149</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>312</v>
+        <v>208</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>313</v>
+        <v>209</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>314</v>
+        <v>210</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>315</v>
+        <v>211</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1">
         <v>0</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>316</v>
+        <v>212</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>317</v>
+        <v>213</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>350</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>227</v>
+        <v>123</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>318</v>
+        <v>214</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>253</v>
+        <v>149</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>319</v>
+        <v>215</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>320</v>
+        <v>216</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>321</v>
+        <v>217</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1">
         <v>0</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>322</v>
+        <v>218</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>322</v>
+        <v>218</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>351</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -3180,7 +3003,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -3238,502 +3061,502 @@
         <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="236.25" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="189" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>27</v>
+        <v>258</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>28</v>
+        <v>259</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>29</v>
+        <v>260</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1">
         <v>0</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>32</v>
+        <v>261</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="189" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="362.25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>262</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>42</v>
+        <v>263</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>43</v>
+        <v>264</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>44</v>
+        <v>265</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1">
         <v>0</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>47</v>
+        <v>266</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="346.5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>267</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>57</v>
+        <v>268</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>58</v>
+        <v>269</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>59</v>
+        <v>270</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1">
         <v>0</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>62</v>
+        <v>271</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>354</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>272</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>72</v>
+        <v>273</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>73</v>
+        <v>274</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>74</v>
+        <v>275</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1">
         <v>0</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="189" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="315" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>87</v>
+        <v>278</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>88</v>
+        <v>279</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>89</v>
+        <v>280</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1">
         <v>0</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>92</v>
+        <v>281</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="330.75" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>94</v>
+        <v>282</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>102</v>
+        <v>283</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>103</v>
+        <v>284</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>104</v>
+        <v>285</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1">
         <v>0</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>107</v>
+        <v>286</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="236.25" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="378" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>109</v>
+        <v>287</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>117</v>
+        <v>288</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>118</v>
+        <v>289</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>119</v>
+        <v>290</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1">
         <v>0</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>122</v>
+        <v>291</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="173.25" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="315" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>124</v>
+        <v>292</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>132</v>
+        <v>293</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>133</v>
+        <v>294</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>134</v>
+        <v>295</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1">
         <v>0</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>137</v>
+        <v>296</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="252" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="378" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>139</v>
+        <v>297</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>144</v>
+        <v>29</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>147</v>
+        <v>298</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>148</v>
+        <v>299</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>149</v>
+        <v>300</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1">
         <v>0</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>151</v>
+        <v>48</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>152</v>
+        <v>301</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>360</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
